--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.74926689937051</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N2">
-        <v>3.74926689937051</v>
+        <v>11.329724</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="Q2">
-        <v>107.1372218559131</v>
+        <v>461.69763937262</v>
       </c>
       <c r="R2">
-        <v>107.1372218559131</v>
+        <v>4155.27875435358</v>
       </c>
       <c r="S2">
-        <v>0.07555758762531722</v>
+        <v>0.1959814512903786</v>
       </c>
       <c r="T2">
-        <v>0.07555758762531722</v>
+        <v>0.1959814512903785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.74926689937051</v>
+        <v>0.05554566666666667</v>
       </c>
       <c r="N3">
-        <v>3.74926689937051</v>
+        <v>0.166637</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01449476055945007</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01449476055945008</v>
       </c>
       <c r="Q3">
-        <v>492.4148214152153</v>
+        <v>6.790625220185</v>
       </c>
       <c r="R3">
-        <v>492.4148214152153</v>
+        <v>61.115626981665</v>
       </c>
       <c r="S3">
-        <v>0.347271241241651</v>
+        <v>0.002882485142504337</v>
       </c>
       <c r="T3">
-        <v>0.347271241241651</v>
+        <v>0.002882485142504337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H4">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I4">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J4">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.74926689937051</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N4">
-        <v>3.74926689937051</v>
+        <v>11.329724</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="Q4">
-        <v>669.273297067375</v>
+        <v>500.5651891097044</v>
       </c>
       <c r="R4">
-        <v>669.273297067375</v>
+        <v>4505.086701987339</v>
       </c>
       <c r="S4">
-        <v>0.4719991326306936</v>
+        <v>0.2124799519453215</v>
       </c>
       <c r="T4">
-        <v>0.4719991326306936</v>
+        <v>0.2124799519453215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>132.5447616666667</v>
+      </c>
+      <c r="H5">
+        <v>397.634285</v>
+      </c>
+      <c r="I5">
+        <v>0.2156050961899926</v>
+      </c>
+      <c r="J5">
+        <v>0.2156050961899926</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.166637</v>
+      </c>
+      <c r="O5">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P5">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q5">
+        <v>7.362287149949444</v>
+      </c>
+      <c r="R5">
+        <v>66.260584349545</v>
+      </c>
+      <c r="S5">
+        <v>0.003125144244671144</v>
+      </c>
+      <c r="T5">
+        <v>0.003125144244671144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>39.7755534428927</v>
-      </c>
-      <c r="H5">
-        <v>39.7755534428927</v>
-      </c>
-      <c r="I5">
-        <v>0.1051720385023381</v>
-      </c>
-      <c r="J5">
-        <v>0.1051720385023381</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.74926689937051</v>
-      </c>
-      <c r="N5">
-        <v>3.74926689937051</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>149.1291659275803</v>
-      </c>
-      <c r="R5">
-        <v>149.1291659275803</v>
-      </c>
-      <c r="S5">
-        <v>0.1051720385023381</v>
-      </c>
-      <c r="T5">
-        <v>0.1051720385023381</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H6">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J6">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N6">
+        <v>11.329724</v>
+      </c>
+      <c r="O6">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="P6">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="Q6">
+        <v>1208.841597157743</v>
+      </c>
+      <c r="R6">
+        <v>10879.57437441969</v>
+      </c>
+      <c r="S6">
+        <v>0.5131291788995945</v>
+      </c>
+      <c r="T6">
+        <v>0.5131291788995945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H7">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J7">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.166637</v>
+      </c>
+      <c r="O7">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P7">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q7">
+        <v>17.77958026387711</v>
+      </c>
+      <c r="R7">
+        <v>160.016222374894</v>
+      </c>
+      <c r="S7">
+        <v>0.007547077667937166</v>
+      </c>
+      <c r="T7">
+        <v>0.007547077667937167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H8">
+        <v>119.60968</v>
+      </c>
+      <c r="I8">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J8">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N8">
+        <v>11.329724</v>
+      </c>
+      <c r="O8">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="P8">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="Q8">
+        <v>150.5716291253689</v>
+      </c>
+      <c r="R8">
+        <v>1355.14466212832</v>
+      </c>
+      <c r="S8">
+        <v>0.06391465730525545</v>
+      </c>
+      <c r="T8">
+        <v>0.06391465730525545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H9">
+        <v>119.60968</v>
+      </c>
+      <c r="I9">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J9">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.166637</v>
+      </c>
+      <c r="O9">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P9">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q9">
+        <v>2.214599805128889</v>
+      </c>
+      <c r="R9">
+        <v>19.93139824616</v>
+      </c>
+      <c r="S9">
+        <v>0.0009400535043374271</v>
+      </c>
+      <c r="T9">
+        <v>0.0009400535043374272</v>
       </c>
     </row>
   </sheetData>
